--- a/biology/Médecine/Prix_Albert-Lasker_pour_la_recherche_médicale_fondamentale/Prix_Albert-Lasker_pour_la_recherche_médicale_fondamentale.xlsx
+++ b/biology/Médecine/Prix_Albert-Lasker_pour_la_recherche_médicale_fondamentale/Prix_Albert-Lasker_pour_la_recherche_médicale_fondamentale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prix_Albert-Lasker_pour_la_recherche_m%C3%A9dicale_fondamentale</t>
+          <t>Prix_Albert-Lasker_pour_la_recherche_médicale_fondamentale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le prix Albert-Lasker pour la recherche médicale fondamentale est l'un des quatre prix Albert-Lasker décerné par la Fondation Lasker pour la « compréhension, le diagnostic, la prévention, le traitement, et guérison d'une maladie ». Ce prix, ainsi que le Prix Albert-Lasker pour la recherche médicale clinique sont la plus haute récompense scientifique médicale aux États-Unis,  est souvent considéré comme l'antichambre du prix Nobel de physiologie ou médecine. Jusqu'en 2019, 68 des 161 lauréats ont également reçu par la suite le Prix Nobel de physiologie ou de médecine, neuf un Prix Nobel de chimie, et un (Ernst Ruska) un Prix Nobel de physique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prix_Albert-Lasker_pour_la_recherche_m%C3%A9dicale_fondamentale</t>
+          <t>Prix_Albert-Lasker_pour_la_recherche_médicale_fondamentale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Récipiendaires du prix Albert-Lasker pour la recherche médicale fondamentale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les récipiendaires du prix sont[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les récipiendaires du prix sont :
 1946 : Carl Ferdinand Cori
 1947 : Oswald Avery, Homer Smith
 1948 : Vincent du Vigneaud, Selman Waksman, René Dubos
